--- a/state_results/Rivers/OrouaatdsFeildingSTP_1f7c6dc4c5.xlsx
+++ b/state_results/Rivers/OrouaatdsFeildingSTP_1f7c6dc4c5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U215"/>
+  <dimension ref="A1:U236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.48703964695679</v>
+        <v>1.48687849466888</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
@@ -651,7 +651,7 @@
         <v>0.0425</v>
       </c>
       <c r="G3" t="n">
-        <v>0.123974372512868</v>
+        <v>0.123978410918196</v>
       </c>
       <c r="H3" t="n">
         <v>0.881</v>
@@ -732,7 +732,7 @@
         <v>0.0425</v>
       </c>
       <c r="G4" t="n">
-        <v>0.123974372512868</v>
+        <v>0.123978410918196</v>
       </c>
       <c r="H4" t="n">
         <v>0.881</v>
@@ -1153,7 +1153,7 @@
         <v>0.49249</v>
       </c>
       <c r="G9" t="n">
-        <v>0.649993055369196</v>
+        <v>0.649862056626261</v>
       </c>
       <c r="H9" t="n">
         <v>4.70214386584615</v>
@@ -1234,7 +1234,7 @@
         <v>0.49249</v>
       </c>
       <c r="G10" t="n">
-        <v>0.649993055369196</v>
+        <v>0.649862056626261</v>
       </c>
       <c r="H10" t="n">
         <v>4.70214386584615</v>
@@ -1473,7 +1473,7 @@
         <v>2.086</v>
       </c>
       <c r="G13" t="n">
-        <v>2.9058275862069</v>
+        <v>2.90582931034483</v>
       </c>
       <c r="H13" t="n">
         <v>18.341</v>
@@ -1550,7 +1550,7 @@
         <v>2.086</v>
       </c>
       <c r="G14" t="n">
-        <v>2.9058275862069</v>
+        <v>2.90582931034483</v>
       </c>
       <c r="H14" t="n">
         <v>18.341</v>
@@ -2101,7 +2101,7 @@
         <v>0.027</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08149161389217829</v>
+        <v>0.0814956522975063</v>
       </c>
       <c r="H21" t="n">
         <v>0.881</v>
@@ -2182,7 +2182,7 @@
         <v>0.027</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08149161389217829</v>
+        <v>0.0814956522975063</v>
       </c>
       <c r="H22" t="n">
         <v>0.881</v>
@@ -2603,7 +2603,7 @@
         <v>0.42301</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6181734835717621</v>
+        <v>0.6180401866052661</v>
       </c>
       <c r="H27" t="n">
         <v>4.70214386584615</v>
@@ -2684,7 +2684,7 @@
         <v>0.42301</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6181734835717621</v>
+        <v>0.6180401866052661</v>
       </c>
       <c r="H28" t="n">
         <v>4.70214386584615</v>
@@ -2923,7 +2923,7 @@
         <v>1.4515</v>
       </c>
       <c r="G31" t="n">
-        <v>2.51610344827586</v>
+        <v>2.51612413793103</v>
       </c>
       <c r="H31" t="n">
         <v>18.341</v>
@@ -2934,7 +2934,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.316</v>
+        <v>1.3162</v>
       </c>
       <c r="M31" t="n">
         <v>4.38264</v>
@@ -3000,7 +3000,7 @@
         <v>1.4515</v>
       </c>
       <c r="G32" t="n">
-        <v>2.51610344827586</v>
+        <v>2.51612413793103</v>
       </c>
       <c r="H32" t="n">
         <v>18.341</v>
@@ -3011,7 +3011,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>1.316</v>
+        <v>1.3162</v>
       </c>
       <c r="M32" t="n">
         <v>4.38264</v>
@@ -3470,7 +3470,7 @@
         <v>1.45</v>
       </c>
       <c r="G38" t="n">
-        <v>1.62170001232088</v>
+        <v>1.62171896169585</v>
       </c>
       <c r="H38" t="n">
         <v>5</v>
@@ -3551,7 +3551,7 @@
         <v>0.021</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0259409085719718</v>
+        <v>0.025944878529752</v>
       </c>
       <c r="H39" t="n">
         <v>0.08500000000000001</v>
@@ -3632,7 +3632,7 @@
         <v>0.021</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0259409085719718</v>
+        <v>0.025944878529752</v>
       </c>
       <c r="H40" t="n">
         <v>0.08500000000000001</v>
@@ -4053,7 +4053,7 @@
         <v>0.25302</v>
       </c>
       <c r="G45" t="n">
-        <v>0.552327851312256</v>
+        <v>0.55219455434576</v>
       </c>
       <c r="H45" t="n">
         <v>4.70214386584615</v>
@@ -4134,7 +4134,7 @@
         <v>0.25302</v>
       </c>
       <c r="G46" t="n">
-        <v>0.552327851312256</v>
+        <v>0.55219455434576</v>
       </c>
       <c r="H46" t="n">
         <v>4.70214386584615</v>
@@ -4373,7 +4373,7 @@
         <v>1.32</v>
       </c>
       <c r="G49" t="n">
-        <v>2.08661016949153</v>
+        <v>2.08662203389831</v>
       </c>
       <c r="H49" t="n">
         <v>18.341</v>
@@ -4384,7 +4384,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>1.218</v>
+        <v>1.2182</v>
       </c>
       <c r="M49" t="n">
         <v>3.45226</v>
@@ -4450,7 +4450,7 @@
         <v>1.32</v>
       </c>
       <c r="G50" t="n">
-        <v>2.08661016949153</v>
+        <v>2.08662203389831</v>
       </c>
       <c r="H50" t="n">
         <v>18.341</v>
@@ -4461,7 +4461,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>1.218</v>
+        <v>1.2182</v>
       </c>
       <c r="M50" t="n">
         <v>3.45226</v>
@@ -4920,7 +4920,7 @@
         <v>1.7</v>
       </c>
       <c r="G56" t="n">
-        <v>1.78333343711149</v>
+        <v>1.78339686092811</v>
       </c>
       <c r="H56" t="n">
         <v>5.2</v>
@@ -5001,7 +5001,7 @@
         <v>0.013</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0219418934291056</v>
+        <v>0.0219457972209228</v>
       </c>
       <c r="H57" t="n">
         <v>0.08500000000000001</v>
@@ -5082,7 +5082,7 @@
         <v>0.013</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0219418934291056</v>
+        <v>0.0219457972209228</v>
       </c>
       <c r="H58" t="n">
         <v>0.08500000000000001</v>
@@ -5503,7 +5503,7 @@
         <v>0.24128</v>
       </c>
       <c r="G63" t="n">
-        <v>0.506933604008062</v>
+        <v>0.506802605265126</v>
       </c>
       <c r="H63" t="n">
         <v>4.70214386584615</v>
@@ -5584,7 +5584,7 @@
         <v>0.24128</v>
       </c>
       <c r="G64" t="n">
-        <v>0.506933604008062</v>
+        <v>0.506802605265126</v>
       </c>
       <c r="H64" t="n">
         <v>4.70214386584615</v>
@@ -5820,10 +5820,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.1595</v>
+        <v>1.1596</v>
       </c>
       <c r="G67" t="n">
-        <v>1.74515</v>
+        <v>1.745155</v>
       </c>
       <c r="H67" t="n">
         <v>18.341</v>
@@ -5834,7 +5834,7 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>1.218</v>
+        <v>1.2182</v>
       </c>
       <c r="M67" t="n">
         <v>2.2543</v>
@@ -5897,10 +5897,10 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.1595</v>
+        <v>1.1596</v>
       </c>
       <c r="G68" t="n">
-        <v>1.74515</v>
+        <v>1.745155</v>
       </c>
       <c r="H68" t="n">
         <v>18.341</v>
@@ -5911,7 +5911,7 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>1.218</v>
+        <v>1.2182</v>
       </c>
       <c r="M68" t="n">
         <v>2.2543</v>
@@ -6370,7 +6370,7 @@
         <v>1.75</v>
       </c>
       <c r="G74" t="n">
-        <v>1.91018191441248</v>
+        <v>1.91024072558788</v>
       </c>
       <c r="H74" t="n">
         <v>7.3</v>
@@ -6451,7 +6451,7 @@
         <v>0.0115</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0198585600957723</v>
+        <v>0.0198624638875894</v>
       </c>
       <c r="H75" t="n">
         <v>0.08</v>
@@ -6532,7 +6532,7 @@
         <v>0.0115</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0198585600957723</v>
+        <v>0.0198624638875894</v>
       </c>
       <c r="H76" t="n">
         <v>0.08</v>
@@ -7030,7 +7030,7 @@
         <v>0.35362</v>
       </c>
       <c r="G82" t="n">
-        <v>0.438595789269806</v>
+        <v>0.438579522952074</v>
       </c>
       <c r="H82" t="n">
         <v>1.60108964697684</v>
@@ -7111,7 +7111,7 @@
         <v>0.35362</v>
       </c>
       <c r="G83" t="n">
-        <v>0.438595789269806</v>
+        <v>0.438579522952074</v>
       </c>
       <c r="H83" t="n">
         <v>1.60108964697684</v>
@@ -7347,13 +7347,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.343</v>
+        <v>1.3432</v>
       </c>
       <c r="G86" t="n">
-        <v>1.53675</v>
+        <v>1.536755</v>
       </c>
       <c r="H86" t="n">
-        <v>5.366</v>
+        <v>5.3662</v>
       </c>
       <c r="I86" t="n">
         <v>3.2485</v>
@@ -7424,13 +7424,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.343</v>
+        <v>1.3432</v>
       </c>
       <c r="G87" t="n">
-        <v>1.53675</v>
+        <v>1.536755</v>
       </c>
       <c r="H87" t="n">
-        <v>5.366</v>
+        <v>5.3662</v>
       </c>
       <c r="I87" t="n">
         <v>3.2485</v>
@@ -7897,7 +7897,7 @@
         <v>1.45</v>
       </c>
       <c r="G93" t="n">
-        <v>1.80421061916993</v>
+        <v>1.80426736679532</v>
       </c>
       <c r="H93" t="n">
         <v>7.3</v>
@@ -8874,13 +8874,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.345</v>
+        <v>1.34505</v>
       </c>
       <c r="G105" t="n">
-        <v>1.5339</v>
+        <v>1.533905</v>
       </c>
       <c r="H105" t="n">
-        <v>5.366</v>
+        <v>5.3662</v>
       </c>
       <c r="I105" t="n">
         <v>3.19</v>
@@ -8894,7 +8894,7 @@
         <v>2.441</v>
       </c>
       <c r="N105" t="n">
-        <v>2.9171</v>
+        <v>2.91698</v>
       </c>
       <c r="O105" t="n">
         <v>1816085.392</v>
@@ -8951,13 +8951,13 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.345</v>
+        <v>1.34505</v>
       </c>
       <c r="G106" t="n">
-        <v>1.5339</v>
+        <v>1.533905</v>
       </c>
       <c r="H106" t="n">
-        <v>5.366</v>
+        <v>5.3662</v>
       </c>
       <c r="I106" t="n">
         <v>3.19</v>
@@ -8971,7 +8971,7 @@
         <v>2.441</v>
       </c>
       <c r="N106" t="n">
-        <v>2.9171</v>
+        <v>2.91698</v>
       </c>
       <c r="O106" t="n">
         <v>1816085.392</v>
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>1.65359658408221</v>
+        <v>1.6536533317076</v>
       </c>
       <c r="H113" t="n">
         <v>7.3</v>
@@ -10558,10 +10558,10 @@
         <v>1.58</v>
       </c>
       <c r="G126" t="n">
-        <v>1.71851666666667</v>
+        <v>1.71850166666667</v>
       </c>
       <c r="H126" t="n">
-        <v>5.366</v>
+        <v>5.3662</v>
       </c>
       <c r="I126" t="n">
         <v>3.295</v>
@@ -10635,10 +10635,10 @@
         <v>1.58</v>
       </c>
       <c r="G127" t="n">
-        <v>1.71851666666667</v>
+        <v>1.71850166666667</v>
       </c>
       <c r="H127" t="n">
-        <v>5.366</v>
+        <v>5.3662</v>
       </c>
       <c r="I127" t="n">
         <v>3.295</v>
@@ -11182,7 +11182,7 @@
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>1.5272983562814</v>
+        <v>1.52733746311802</v>
       </c>
       <c r="H134" t="n">
         <v>7.3</v>
@@ -11425,10 +11425,10 @@
         <v>195</v>
       </c>
       <c r="G137" t="n">
-        <v>1509.51911682809</v>
+        <v>1265.25047134602</v>
       </c>
       <c r="H137" t="n">
-        <v>25815.1470096852</v>
+        <v>12000</v>
       </c>
       <c r="I137" t="n">
         <v>9678</v>
@@ -11510,10 +11510,10 @@
         <v>195</v>
       </c>
       <c r="G138" t="n">
-        <v>1509.51911682809</v>
+        <v>1265.25047134602</v>
       </c>
       <c r="H138" t="n">
-        <v>25815.1470096852</v>
+        <v>12000</v>
       </c>
       <c r="I138" t="n">
         <v>9678</v>
@@ -11595,10 +11595,10 @@
         <v>195</v>
       </c>
       <c r="G139" t="n">
-        <v>1509.51911682809</v>
+        <v>1265.25047134602</v>
       </c>
       <c r="H139" t="n">
-        <v>25815.1470096852</v>
+        <v>12000</v>
       </c>
       <c r="I139" t="n">
         <v>9678</v>
@@ -11680,10 +11680,10 @@
         <v>195</v>
       </c>
       <c r="G140" t="n">
-        <v>1509.51911682809</v>
+        <v>1265.25047134602</v>
       </c>
       <c r="H140" t="n">
-        <v>25815.1470096852</v>
+        <v>12000</v>
       </c>
       <c r="I140" t="n">
         <v>9678</v>
@@ -11842,7 +11842,7 @@
         <v>0.47619</v>
       </c>
       <c r="G142" t="n">
-        <v>0.657266773265833</v>
+        <v>0.657176674692954</v>
       </c>
       <c r="H142" t="n">
         <v>4.25</v>
@@ -11923,7 +11923,7 @@
         <v>0.47619</v>
       </c>
       <c r="G143" t="n">
-        <v>0.657266773265833</v>
+        <v>0.657176674692954</v>
       </c>
       <c r="H143" t="n">
         <v>4.25</v>
@@ -12239,10 +12239,10 @@
         <v>1.6</v>
       </c>
       <c r="G147" t="n">
-        <v>1.8226</v>
+        <v>1.82259333333333</v>
       </c>
       <c r="H147" t="n">
-        <v>5.366</v>
+        <v>5.3662</v>
       </c>
       <c r="I147" t="n">
         <v>3.415</v>
@@ -12316,10 +12316,10 @@
         <v>1.6</v>
       </c>
       <c r="G148" t="n">
-        <v>1.8226</v>
+        <v>1.82259333333333</v>
       </c>
       <c r="H148" t="n">
-        <v>5.366</v>
+        <v>5.3662</v>
       </c>
       <c r="I148" t="n">
         <v>3.415</v>
@@ -13106,10 +13106,10 @@
         <v>190</v>
       </c>
       <c r="G158" t="n">
-        <v>1160.39232219805</v>
+        <v>911.983530182393</v>
       </c>
       <c r="H158" t="n">
-        <v>25815.1470096852</v>
+        <v>12000</v>
       </c>
       <c r="I158" t="n">
         <v>5975</v>
@@ -13191,10 +13191,10 @@
         <v>190</v>
       </c>
       <c r="G159" t="n">
-        <v>1160.39232219805</v>
+        <v>911.983530182393</v>
       </c>
       <c r="H159" t="n">
-        <v>25815.1470096852</v>
+        <v>12000</v>
       </c>
       <c r="I159" t="n">
         <v>5975</v>
@@ -13276,10 +13276,10 @@
         <v>190</v>
       </c>
       <c r="G160" t="n">
-        <v>1160.39232219805</v>
+        <v>911.983530182393</v>
       </c>
       <c r="H160" t="n">
-        <v>25815.1470096852</v>
+        <v>12000</v>
       </c>
       <c r="I160" t="n">
         <v>5975</v>
@@ -13361,10 +13361,10 @@
         <v>190</v>
       </c>
       <c r="G161" t="n">
-        <v>1160.39232219805</v>
+        <v>911.983530182393</v>
       </c>
       <c r="H161" t="n">
-        <v>25815.1470096852</v>
+        <v>12000</v>
       </c>
       <c r="I161" t="n">
         <v>5975</v>
@@ -13523,7 +13523,7 @@
         <v>0.46904</v>
       </c>
       <c r="G163" t="n">
-        <v>0.61624317026616</v>
+        <v>0.616146141033829</v>
       </c>
       <c r="H163" t="n">
         <v>4.25</v>
@@ -13604,7 +13604,7 @@
         <v>0.46904</v>
       </c>
       <c r="G164" t="n">
-        <v>0.61624317026616</v>
+        <v>0.616146141033829</v>
       </c>
       <c r="H164" t="n">
         <v>4.25</v>
@@ -13685,7 +13685,7 @@
         <v>0.916</v>
       </c>
       <c r="G165" t="n">
-        <v>0.878908336816562</v>
+        <v>0.878870565753312</v>
       </c>
       <c r="H165" t="n">
         <v>1.68</v>
@@ -13766,7 +13766,7 @@
         <v>0.916</v>
       </c>
       <c r="G166" t="n">
-        <v>0.878908336816562</v>
+        <v>0.878870565753312</v>
       </c>
       <c r="H166" t="n">
         <v>1.68</v>
@@ -14787,13 +14787,13 @@
         <v>200</v>
       </c>
       <c r="G179" t="n">
-        <v>1423.0188820649</v>
+        <v>1103.70075995378</v>
       </c>
       <c r="H179" t="n">
-        <v>25815.1470096852</v>
+        <v>12229.316556512</v>
       </c>
       <c r="I179" t="n">
-        <v>9390</v>
+        <v>8927.465550000001</v>
       </c>
       <c r="J179" t="n">
         <v>25.4237288135593</v>
@@ -14872,13 +14872,13 @@
         <v>200</v>
       </c>
       <c r="G180" t="n">
-        <v>1423.0188820649</v>
+        <v>1103.70075995378</v>
       </c>
       <c r="H180" t="n">
-        <v>25815.1470096852</v>
+        <v>12229.316556512</v>
       </c>
       <c r="I180" t="n">
-        <v>9390</v>
+        <v>8927.465550000001</v>
       </c>
       <c r="J180" t="n">
         <v>25.4237288135593</v>
@@ -14957,13 +14957,13 @@
         <v>200</v>
       </c>
       <c r="G181" t="n">
-        <v>1423.0188820649</v>
+        <v>1103.70075995378</v>
       </c>
       <c r="H181" t="n">
-        <v>25815.1470096852</v>
+        <v>12229.316556512</v>
       </c>
       <c r="I181" t="n">
-        <v>9390</v>
+        <v>8927.465550000001</v>
       </c>
       <c r="J181" t="n">
         <v>25.4237288135593</v>
@@ -15042,13 +15042,13 @@
         <v>200</v>
       </c>
       <c r="G182" t="n">
-        <v>1423.0188820649</v>
+        <v>1103.70075995378</v>
       </c>
       <c r="H182" t="n">
-        <v>25815.1470096852</v>
+        <v>12229.316556512</v>
       </c>
       <c r="I182" t="n">
-        <v>9390</v>
+        <v>8927.465550000001</v>
       </c>
       <c r="J182" t="n">
         <v>25.4237288135593</v>
@@ -15204,7 +15204,7 @@
         <v>0.38611</v>
       </c>
       <c r="G184" t="n">
-        <v>0.602659701277661</v>
+        <v>0.602511481498421</v>
       </c>
       <c r="H184" t="n">
         <v>4.25</v>
@@ -15215,7 +15215,7 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
-        <v>0.12448</v>
+        <v>0.12293</v>
       </c>
       <c r="M184" t="n">
         <v>1.03692</v>
@@ -15285,7 +15285,7 @@
         <v>0.38611</v>
       </c>
       <c r="G185" t="n">
-        <v>0.602659701277661</v>
+        <v>0.602511481498421</v>
       </c>
       <c r="H185" t="n">
         <v>4.25</v>
@@ -15296,7 +15296,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
-        <v>0.12448</v>
+        <v>0.12293</v>
       </c>
       <c r="M185" t="n">
         <v>1.03692</v>
@@ -15366,7 +15366,7 @@
         <v>0.742</v>
       </c>
       <c r="G186" t="n">
-        <v>0.754349014782664</v>
+        <v>0.754311243719414</v>
       </c>
       <c r="H186" t="n">
         <v>1.9</v>
@@ -15447,7 +15447,7 @@
         <v>0.742</v>
       </c>
       <c r="G187" t="n">
-        <v>0.754349014782664</v>
+        <v>0.754311243719414</v>
       </c>
       <c r="H187" t="n">
         <v>1.9</v>
@@ -15601,7 +15601,7 @@
         <v>1.34</v>
       </c>
       <c r="G189" t="n">
-        <v>1.49833898305085</v>
+        <v>1.49833050847458</v>
       </c>
       <c r="H189" t="n">
         <v>5.43</v>
@@ -15678,7 +15678,7 @@
         <v>1.34</v>
       </c>
       <c r="G190" t="n">
-        <v>1.49833898305085</v>
+        <v>1.49833050847458</v>
       </c>
       <c r="H190" t="n">
         <v>5.43</v>
@@ -16468,13 +16468,13 @@
         <v>200</v>
       </c>
       <c r="G200" t="n">
-        <v>1385.49659616609</v>
+        <v>1066.17746903396</v>
       </c>
       <c r="H200" t="n">
-        <v>25815.1470096852</v>
+        <v>12229.316556512</v>
       </c>
       <c r="I200" t="n">
-        <v>9390</v>
+        <v>8927.465550000001</v>
       </c>
       <c r="J200" t="n">
         <v>22.0338983050847</v>
@@ -16553,13 +16553,13 @@
         <v>200</v>
       </c>
       <c r="G201" t="n">
-        <v>1385.49659616609</v>
+        <v>1066.17746903396</v>
       </c>
       <c r="H201" t="n">
-        <v>25815.1470096852</v>
+        <v>12229.316556512</v>
       </c>
       <c r="I201" t="n">
-        <v>9390</v>
+        <v>8927.465550000001</v>
       </c>
       <c r="J201" t="n">
         <v>22.0338983050847</v>
@@ -16638,13 +16638,13 @@
         <v>200</v>
       </c>
       <c r="G202" t="n">
-        <v>1385.49659616609</v>
+        <v>1066.17746903396</v>
       </c>
       <c r="H202" t="n">
-        <v>25815.1470096852</v>
+        <v>12229.316556512</v>
       </c>
       <c r="I202" t="n">
-        <v>9390</v>
+        <v>8927.465550000001</v>
       </c>
       <c r="J202" t="n">
         <v>22.0338983050847</v>
@@ -16723,13 +16723,13 @@
         <v>200</v>
       </c>
       <c r="G203" t="n">
-        <v>1385.49659616609</v>
+        <v>1066.17746903396</v>
       </c>
       <c r="H203" t="n">
-        <v>25815.1470096852</v>
+        <v>12229.316556512</v>
       </c>
       <c r="I203" t="n">
-        <v>9390</v>
+        <v>8927.465550000001</v>
       </c>
       <c r="J203" t="n">
         <v>22.0338983050847</v>
@@ -16885,7 +16885,7 @@
         <v>0.40032</v>
       </c>
       <c r="G205" t="n">
-        <v>0.776426114660309</v>
+        <v>0.77627789488107</v>
       </c>
       <c r="H205" t="n">
         <v>9.05430082129392</v>
@@ -16896,7 +16896,7 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
-        <v>0.01825</v>
+        <v>0.01768</v>
       </c>
       <c r="M205" t="n">
         <v>1.23337</v>
@@ -16966,7 +16966,7 @@
         <v>0.40032</v>
       </c>
       <c r="G206" t="n">
-        <v>0.776426114660309</v>
+        <v>0.77627789488107</v>
       </c>
       <c r="H206" t="n">
         <v>9.05430082129392</v>
@@ -16977,7 +16977,7 @@
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
-        <v>0.01825</v>
+        <v>0.01768</v>
       </c>
       <c r="M206" t="n">
         <v>1.23337</v>
@@ -17047,7 +17047,7 @@
         <v>0.792</v>
       </c>
       <c r="G207" t="n">
-        <v>0.820501557155545</v>
+        <v>0.820463786092295</v>
       </c>
       <c r="H207" t="n">
         <v>2.12</v>
@@ -17128,7 +17128,7 @@
         <v>0.792</v>
       </c>
       <c r="G208" t="n">
-        <v>0.820501557155545</v>
+        <v>0.820463786092295</v>
       </c>
       <c r="H208" t="n">
         <v>2.12</v>
@@ -17282,7 +17282,7 @@
         <v>1.5</v>
       </c>
       <c r="G210" t="n">
-        <v>1.83835593220339</v>
+        <v>1.83834745762712</v>
       </c>
       <c r="H210" t="n">
         <v>13.2</v>
@@ -17359,7 +17359,7 @@
         <v>1.5</v>
       </c>
       <c r="G211" t="n">
-        <v>1.83835593220339</v>
+        <v>1.83834745762712</v>
       </c>
       <c r="H211" t="n">
         <v>13.2</v>
@@ -17718,6 +17718,1687 @@
         </is>
       </c>
     </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.4179</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>15</v>
+      </c>
+      <c r="G217" t="n">
+        <v>30.0269082862909</v>
+      </c>
+      <c r="H217" t="n">
+        <v>190</v>
+      </c>
+      <c r="I217" t="n">
+        <v>130</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="M217" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="N217" t="n">
+        <v>95</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1.405</v>
+      </c>
+      <c r="H218" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I218" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M218" t="n">
+        <v>2.566</v>
+      </c>
+      <c r="N218" t="n">
+        <v>4.006</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P218" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.0681525423728814</v>
+      </c>
+      <c r="H219" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.05045</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0.02941</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.03956</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P219" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.0681525423728814</v>
+      </c>
+      <c r="H220" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0.05045</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0.02941</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0.03956</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>130</v>
+      </c>
+      <c r="G221" t="n">
+        <v>982.126621576332</v>
+      </c>
+      <c r="H221" t="n">
+        <v>12229.316556512</v>
+      </c>
+      <c r="I221" t="n">
+        <v>8927.465550000001</v>
+      </c>
+      <c r="J221" t="n">
+        <v>22.0338983050847</v>
+      </c>
+      <c r="K221" t="n">
+        <v>35.5932203389831</v>
+      </c>
+      <c r="L221" t="n">
+        <v>185</v>
+      </c>
+      <c r="M221" t="n">
+        <v>833.5</v>
+      </c>
+      <c r="N221" t="n">
+        <v>2069.44</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>130</v>
+      </c>
+      <c r="G222" t="n">
+        <v>982.126621576332</v>
+      </c>
+      <c r="H222" t="n">
+        <v>12229.316556512</v>
+      </c>
+      <c r="I222" t="n">
+        <v>8927.465550000001</v>
+      </c>
+      <c r="J222" t="n">
+        <v>22.0338983050847</v>
+      </c>
+      <c r="K222" t="n">
+        <v>35.5932203389831</v>
+      </c>
+      <c r="L222" t="n">
+        <v>185</v>
+      </c>
+      <c r="M222" t="n">
+        <v>833.5</v>
+      </c>
+      <c r="N222" t="n">
+        <v>2069.44</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>130</v>
+      </c>
+      <c r="G223" t="n">
+        <v>982.126621576332</v>
+      </c>
+      <c r="H223" t="n">
+        <v>12229.316556512</v>
+      </c>
+      <c r="I223" t="n">
+        <v>8927.465550000001</v>
+      </c>
+      <c r="J223" t="n">
+        <v>22.0338983050847</v>
+      </c>
+      <c r="K223" t="n">
+        <v>35.5932203389831</v>
+      </c>
+      <c r="L223" t="n">
+        <v>185</v>
+      </c>
+      <c r="M223" t="n">
+        <v>833.5</v>
+      </c>
+      <c r="N223" t="n">
+        <v>2069.44</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>130</v>
+      </c>
+      <c r="G224" t="n">
+        <v>982.126621576332</v>
+      </c>
+      <c r="H224" t="n">
+        <v>12229.316556512</v>
+      </c>
+      <c r="I224" t="n">
+        <v>8927.465550000001</v>
+      </c>
+      <c r="J224" t="n">
+        <v>22.0338983050847</v>
+      </c>
+      <c r="K224" t="n">
+        <v>35.5932203389831</v>
+      </c>
+      <c r="L224" t="n">
+        <v>185</v>
+      </c>
+      <c r="M224" t="n">
+        <v>833.5</v>
+      </c>
+      <c r="N224" t="n">
+        <v>2069.44</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P224" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>97.78</v>
+      </c>
+      <c r="G225" t="n">
+        <v>99.238</v>
+      </c>
+      <c r="H225" t="n">
+        <v>109.41</v>
+      </c>
+      <c r="I225" t="n">
+        <v>109.41</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>97.78</v>
+      </c>
+      <c r="M225" t="n">
+        <v>106.1165</v>
+      </c>
+      <c r="N225" t="n">
+        <v>109.41</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P225" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>0.21571</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.619105959766526</v>
+      </c>
+      <c r="H226" t="n">
+        <v>9.05430082129392</v>
+      </c>
+      <c r="I226" t="n">
+        <v>2.03465</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>0.01616</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1.09094</v>
+      </c>
+      <c r="N226" t="n">
+        <v>1.90846</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P226" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>0.21571</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.619105959766526</v>
+      </c>
+      <c r="H227" t="n">
+        <v>9.05430082129392</v>
+      </c>
+      <c r="I227" t="n">
+        <v>2.03465</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>0.01616</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1.09094</v>
+      </c>
+      <c r="N227" t="n">
+        <v>1.90846</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P227" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.824972260668566</v>
+      </c>
+      <c r="H228" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I228" t="n">
+        <v>2.1055</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>0.0925</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1.5035</v>
+      </c>
+      <c r="N228" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P228" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.824972260668566</v>
+      </c>
+      <c r="H229" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I229" t="n">
+        <v>2.1055</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>0.0925</v>
+      </c>
+      <c r="M229" t="n">
+        <v>1.5035</v>
+      </c>
+      <c r="N229" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P229" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="G230" t="n">
+        <v>5.8198</v>
+      </c>
+      <c r="H230" t="n">
+        <v>6.515</v>
+      </c>
+      <c r="I230" t="n">
+        <v>6.515</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="M230" t="n">
+        <v>6.36975</v>
+      </c>
+      <c r="N230" t="n">
+        <v>6.515</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P230" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>1.259</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1.76270338983051</v>
+      </c>
+      <c r="H231" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="I231" t="n">
+        <v>5.683</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="M231" t="n">
+        <v>2.86131</v>
+      </c>
+      <c r="N231" t="n">
+        <v>4.9428</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P231" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>1.259</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1.76270338983051</v>
+      </c>
+      <c r="H232" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="I232" t="n">
+        <v>5.683</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="M232" t="n">
+        <v>2.86131</v>
+      </c>
+      <c r="N232" t="n">
+        <v>4.9428</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P232" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1.76983050847458</v>
+      </c>
+      <c r="H233" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="I233" t="n">
+        <v>6.0295</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="M233" t="n">
+        <v>2.9151</v>
+      </c>
+      <c r="N233" t="n">
+        <v>4.4564</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P233" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1.76983050847458</v>
+      </c>
+      <c r="H234" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="I234" t="n">
+        <v>6.0295</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="M234" t="n">
+        <v>2.9151</v>
+      </c>
+      <c r="N234" t="n">
+        <v>4.4564</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P234" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.07994915254237291</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0.2343</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>0.0285</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0.11582</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.22236</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P235" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.07994915254237291</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0.2343</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>0.0285</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0.11582</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0.22236</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="P236" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OrouaatdsFeildingSTP_1f7c6dc4c5.xlsx
+++ b/state_results/Rivers/OrouaatdsFeildingSTP_1f7c6dc4c5.xlsx
@@ -11425,7 +11425,7 @@
         <v>195</v>
       </c>
       <c r="G137" t="n">
-        <v>1265.25047134602</v>
+        <v>1265.37781839009</v>
       </c>
       <c r="H137" t="n">
         <v>12000</v>
@@ -11510,7 +11510,7 @@
         <v>195</v>
       </c>
       <c r="G138" t="n">
-        <v>1265.25047134602</v>
+        <v>1265.37781839009</v>
       </c>
       <c r="H138" t="n">
         <v>12000</v>
@@ -11595,7 +11595,7 @@
         <v>195</v>
       </c>
       <c r="G139" t="n">
-        <v>1265.25047134602</v>
+        <v>1265.37781839009</v>
       </c>
       <c r="H139" t="n">
         <v>12000</v>
@@ -11680,7 +11680,7 @@
         <v>195</v>
       </c>
       <c r="G140" t="n">
-        <v>1265.25047134602</v>
+        <v>1265.37781839009</v>
       </c>
       <c r="H140" t="n">
         <v>12000</v>
@@ -13106,7 +13106,7 @@
         <v>190</v>
       </c>
       <c r="G158" t="n">
-        <v>911.983530182393</v>
+        <v>912.11303565094</v>
       </c>
       <c r="H158" t="n">
         <v>12000</v>
@@ -13191,7 +13191,7 @@
         <v>190</v>
       </c>
       <c r="G159" t="n">
-        <v>911.983530182393</v>
+        <v>912.11303565094</v>
       </c>
       <c r="H159" t="n">
         <v>12000</v>
@@ -13276,7 +13276,7 @@
         <v>190</v>
       </c>
       <c r="G160" t="n">
-        <v>911.983530182393</v>
+        <v>912.11303565094</v>
       </c>
       <c r="H160" t="n">
         <v>12000</v>
@@ -13361,7 +13361,7 @@
         <v>190</v>
       </c>
       <c r="G161" t="n">
-        <v>911.983530182393</v>
+        <v>912.11303565094</v>
       </c>
       <c r="H161" t="n">
         <v>12000</v>
@@ -14787,13 +14787,13 @@
         <v>200</v>
       </c>
       <c r="G179" t="n">
-        <v>1103.70075995378</v>
+        <v>1107.63364988883</v>
       </c>
       <c r="H179" t="n">
-        <v>12229.316556512</v>
+        <v>12453.7162400357</v>
       </c>
       <c r="I179" t="n">
-        <v>8927.465550000001</v>
+        <v>8931.668009999999</v>
       </c>
       <c r="J179" t="n">
         <v>25.4237288135593</v>
@@ -14872,13 +14872,13 @@
         <v>200</v>
       </c>
       <c r="G180" t="n">
-        <v>1103.70075995378</v>
+        <v>1107.63364988883</v>
       </c>
       <c r="H180" t="n">
-        <v>12229.316556512</v>
+        <v>12453.7162400357</v>
       </c>
       <c r="I180" t="n">
-        <v>8927.465550000001</v>
+        <v>8931.668009999999</v>
       </c>
       <c r="J180" t="n">
         <v>25.4237288135593</v>
@@ -14957,13 +14957,13 @@
         <v>200</v>
       </c>
       <c r="G181" t="n">
-        <v>1103.70075995378</v>
+        <v>1107.63364988883</v>
       </c>
       <c r="H181" t="n">
-        <v>12229.316556512</v>
+        <v>12453.7162400357</v>
       </c>
       <c r="I181" t="n">
-        <v>8927.465550000001</v>
+        <v>8931.668009999999</v>
       </c>
       <c r="J181" t="n">
         <v>25.4237288135593</v>
@@ -15042,13 +15042,13 @@
         <v>200</v>
       </c>
       <c r="G182" t="n">
-        <v>1103.70075995378</v>
+        <v>1107.63364988883</v>
       </c>
       <c r="H182" t="n">
-        <v>12229.316556512</v>
+        <v>12453.7162400357</v>
       </c>
       <c r="I182" t="n">
-        <v>8927.465550000001</v>
+        <v>8931.668009999999</v>
       </c>
       <c r="J182" t="n">
         <v>25.4237288135593</v>
@@ -16468,13 +16468,13 @@
         <v>200</v>
       </c>
       <c r="G200" t="n">
-        <v>1066.17746903396</v>
+        <v>1070.11035896901</v>
       </c>
       <c r="H200" t="n">
-        <v>12229.316556512</v>
+        <v>12453.7162400357</v>
       </c>
       <c r="I200" t="n">
-        <v>8927.465550000001</v>
+        <v>8931.668009999999</v>
       </c>
       <c r="J200" t="n">
         <v>22.0338983050847</v>
@@ -16553,13 +16553,13 @@
         <v>200</v>
       </c>
       <c r="G201" t="n">
-        <v>1066.17746903396</v>
+        <v>1070.11035896901</v>
       </c>
       <c r="H201" t="n">
-        <v>12229.316556512</v>
+        <v>12453.7162400357</v>
       </c>
       <c r="I201" t="n">
-        <v>8927.465550000001</v>
+        <v>8931.668009999999</v>
       </c>
       <c r="J201" t="n">
         <v>22.0338983050847</v>
@@ -16638,13 +16638,13 @@
         <v>200</v>
       </c>
       <c r="G202" t="n">
-        <v>1066.17746903396</v>
+        <v>1070.11035896901</v>
       </c>
       <c r="H202" t="n">
-        <v>12229.316556512</v>
+        <v>12453.7162400357</v>
       </c>
       <c r="I202" t="n">
-        <v>8927.465550000001</v>
+        <v>8931.668009999999</v>
       </c>
       <c r="J202" t="n">
         <v>22.0338983050847</v>
@@ -16723,13 +16723,13 @@
         <v>200</v>
       </c>
       <c r="G203" t="n">
-        <v>1066.17746903396</v>
+        <v>1070.11035896901</v>
       </c>
       <c r="H203" t="n">
-        <v>12229.316556512</v>
+        <v>12453.7162400357</v>
       </c>
       <c r="I203" t="n">
-        <v>8927.465550000001</v>
+        <v>8931.668009999999</v>
       </c>
       <c r="J203" t="n">
         <v>22.0338983050847</v>
@@ -18149,13 +18149,13 @@
         <v>130</v>
       </c>
       <c r="G221" t="n">
-        <v>982.126621576332</v>
+        <v>986.0595115113809</v>
       </c>
       <c r="H221" t="n">
-        <v>12229.316556512</v>
+        <v>12453.7162400357</v>
       </c>
       <c r="I221" t="n">
-        <v>8927.465550000001</v>
+        <v>8931.668009999999</v>
       </c>
       <c r="J221" t="n">
         <v>22.0338983050847</v>
@@ -18234,13 +18234,13 @@
         <v>130</v>
       </c>
       <c r="G222" t="n">
-        <v>982.126621576332</v>
+        <v>986.0595115113809</v>
       </c>
       <c r="H222" t="n">
-        <v>12229.316556512</v>
+        <v>12453.7162400357</v>
       </c>
       <c r="I222" t="n">
-        <v>8927.465550000001</v>
+        <v>8931.668009999999</v>
       </c>
       <c r="J222" t="n">
         <v>22.0338983050847</v>
@@ -18319,13 +18319,13 @@
         <v>130</v>
       </c>
       <c r="G223" t="n">
-        <v>982.126621576332</v>
+        <v>986.0595115113809</v>
       </c>
       <c r="H223" t="n">
-        <v>12229.316556512</v>
+        <v>12453.7162400357</v>
       </c>
       <c r="I223" t="n">
-        <v>8927.465550000001</v>
+        <v>8931.668009999999</v>
       </c>
       <c r="J223" t="n">
         <v>22.0338983050847</v>
@@ -18404,13 +18404,13 @@
         <v>130</v>
       </c>
       <c r="G224" t="n">
-        <v>982.126621576332</v>
+        <v>986.0595115113809</v>
       </c>
       <c r="H224" t="n">
-        <v>12229.316556512</v>
+        <v>12453.7162400357</v>
       </c>
       <c r="I224" t="n">
-        <v>8927.465550000001</v>
+        <v>8931.668009999999</v>
       </c>
       <c r="J224" t="n">
         <v>22.0338983050847</v>
